--- a/BackTest/2019-11-19 BackTest FCT.xlsx
+++ b/BackTest/2019-11-19 BackTest FCT.xlsx
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -7171,17 +7171,13 @@
         <v>105</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>105</v>
-      </c>
-      <c r="K194" t="n">
-        <v>105</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
@@ -7210,22 +7206,14 @@
         <v>106</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>106</v>
-      </c>
-      <c r="K195" t="n">
-        <v>105</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7259,11 +7247,9 @@
         <v>0</v>
       </c>
       <c r="J196" t="n">
-        <v>105</v>
-      </c>
-      <c r="K196" t="n">
-        <v>105</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -7302,11 +7288,9 @@
         <v>0</v>
       </c>
       <c r="J197" t="n">
-        <v>106</v>
-      </c>
-      <c r="K197" t="n">
-        <v>105</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7345,11 +7329,9 @@
         <v>0</v>
       </c>
       <c r="J198" t="n">
-        <v>106</v>
-      </c>
-      <c r="K198" t="n">
-        <v>105</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7388,11 +7370,9 @@
         <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>106</v>
-      </c>
-      <c r="K199" t="n">
-        <v>105</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7431,11 +7411,9 @@
         <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>106</v>
-      </c>
-      <c r="K200" t="n">
-        <v>105</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7474,11 +7452,9 @@
         <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>107</v>
-      </c>
-      <c r="K201" t="n">
-        <v>105</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7517,11 +7493,9 @@
         <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>106</v>
-      </c>
-      <c r="K202" t="n">
-        <v>105</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7554,17 +7528,13 @@
         <v>106.5</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>107</v>
-      </c>
-      <c r="K203" t="n">
-        <v>105</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7597,17 +7567,13 @@
         <v>106.5</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>106</v>
-      </c>
-      <c r="K204" t="n">
-        <v>105</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7640,17 +7606,13 @@
         <v>106</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>106</v>
-      </c>
-      <c r="K205" t="n">
-        <v>105</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7683,17 +7645,13 @@
         <v>106.5</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>107</v>
-      </c>
-      <c r="K206" t="n">
-        <v>105</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7726,17 +7684,13 @@
         <v>107</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>107</v>
-      </c>
-      <c r="K207" t="n">
-        <v>105</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7769,17 +7723,13 @@
         <v>106.5</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>106</v>
-      </c>
-      <c r="K208" t="n">
-        <v>105</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7812,17 +7762,13 @@
         <v>106</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>106</v>
-      </c>
-      <c r="K209" t="n">
-        <v>105</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7855,17 +7801,13 @@
         <v>106.5</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>106</v>
-      </c>
-      <c r="K210" t="n">
-        <v>105</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7898,17 +7840,13 @@
         <v>107</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>107</v>
-      </c>
-      <c r="K211" t="n">
-        <v>105</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7941,17 +7879,13 @@
         <v>107.5</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>107</v>
-      </c>
-      <c r="K212" t="n">
-        <v>105</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7984,17 +7918,13 @@
         <v>108</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>108</v>
-      </c>
-      <c r="K213" t="n">
-        <v>105</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8027,17 +7957,13 @@
         <v>108</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>108</v>
-      </c>
-      <c r="K214" t="n">
-        <v>105</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8070,17 +7996,13 @@
         <v>108</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>108</v>
-      </c>
-      <c r="K215" t="n">
-        <v>105</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8113,17 +8035,13 @@
         <v>108</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>108</v>
-      </c>
-      <c r="K216" t="n">
-        <v>105</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8156,17 +8074,13 @@
         <v>108</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>108</v>
-      </c>
-      <c r="K217" t="n">
-        <v>105</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8199,17 +8113,13 @@
         <v>108</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>108</v>
-      </c>
-      <c r="K218" t="n">
-        <v>105</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8242,17 +8152,13 @@
         <v>108</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>108</v>
-      </c>
-      <c r="K219" t="n">
-        <v>105</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8285,17 +8191,13 @@
         <v>108</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>108</v>
-      </c>
-      <c r="K220" t="n">
-        <v>105</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8328,17 +8230,13 @@
         <v>108</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>108</v>
-      </c>
-      <c r="K221" t="n">
-        <v>105</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8377,9 +8275,7 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>105</v>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8418,9 +8314,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>105</v>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8453,17 +8347,13 @@
         <v>108</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>108</v>
-      </c>
-      <c r="K224" t="n">
-        <v>105</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8502,9 +8392,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>105</v>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8543,9 +8431,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>105</v>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8584,9 +8470,7 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>105</v>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8625,9 +8509,7 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>105</v>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8666,9 +8548,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>105</v>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8707,9 +8587,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>105</v>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8748,9 +8626,7 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>105</v>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8789,9 +8665,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>105</v>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8830,9 +8704,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>105</v>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8871,9 +8743,7 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>105</v>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8912,9 +8782,7 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>105</v>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8953,9 +8821,7 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>105</v>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8994,9 +8860,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>105</v>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9035,9 +8899,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>105</v>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9076,9 +8938,7 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>105</v>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9117,9 +8977,7 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>105</v>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9158,9 +9016,7 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>105</v>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9199,9 +9055,7 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>105</v>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9240,9 +9094,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>105</v>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9281,9 +9133,7 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>105</v>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9322,9 +9172,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>105</v>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9363,9 +9211,7 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>105</v>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9401,19 +9247,17 @@
         <v>0</v>
       </c>
       <c r="I247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>105</v>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>1.042619047619048</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -9442,11 +9286,15 @@
         <v>0</v>
       </c>
       <c r="I248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9481,7 +9329,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9516,7 +9368,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9551,7 +9407,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9586,7 +9446,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9621,7 +9485,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9656,7 +9524,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9691,7 +9563,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9726,7 +9602,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9761,7 +9641,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9796,7 +9680,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9831,7 +9719,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9866,7 +9758,11 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9901,7 +9797,11 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9936,7 +9836,11 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9971,7 +9875,11 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10006,7 +9914,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10041,7 +9953,11 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10076,7 +9992,11 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10111,7 +10031,11 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10146,7 +10070,11 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10181,7 +10109,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10216,7 +10148,11 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10251,7 +10187,11 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10286,7 +10226,11 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10321,7 +10265,11 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10356,7 +10304,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10391,7 +10343,11 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10426,7 +10382,11 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10461,7 +10421,11 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10496,7 +10460,11 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10531,7 +10499,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10566,7 +10538,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10601,7 +10577,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10636,7 +10616,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10671,7 +10655,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10706,7 +10694,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10741,7 +10733,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10776,7 +10772,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10811,7 +10811,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10846,7 +10850,11 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10881,7 +10889,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10916,7 +10928,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10951,7 +10967,11 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10986,7 +11006,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11021,7 +11045,11 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11056,7 +11084,11 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11091,7 +11123,11 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11126,7 +11162,11 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11161,7 +11201,11 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11196,7 +11240,11 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11231,7 +11279,11 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11266,7 +11318,11 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11301,7 +11357,11 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11336,7 +11396,11 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11371,7 +11435,11 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11406,7 +11474,11 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11441,7 +11513,11 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11476,7 +11552,11 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11511,7 +11591,11 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11546,7 +11630,11 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11581,7 +11669,11 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11616,7 +11708,11 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11651,7 +11747,11 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11686,7 +11786,11 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11721,7 +11825,11 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11756,7 +11864,11 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11791,7 +11903,11 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11826,7 +11942,11 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11861,7 +11981,11 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11896,7 +12020,11 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -11931,7 +12059,11 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -11966,7 +12098,11 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12001,7 +12137,11 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12036,7 +12176,11 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12071,7 +12215,11 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12106,7 +12254,11 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12141,7 +12293,11 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12176,7 +12332,11 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12211,7 +12371,11 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12246,7 +12410,11 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12281,7 +12449,11 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12316,7 +12488,11 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12351,7 +12527,11 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12386,7 +12566,11 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12421,7 +12605,11 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12456,7 +12644,11 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12491,7 +12683,11 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12526,7 +12722,11 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12561,7 +12761,11 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12596,7 +12800,11 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12631,7 +12839,11 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12666,7 +12878,11 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12701,7 +12917,11 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12736,7 +12956,11 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12771,7 +12995,11 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12806,7 +13034,11 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12841,7 +13073,11 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -12876,7 +13112,11 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -12911,7 +13151,11 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -12946,7 +13190,11 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -12981,7 +13229,11 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13016,7 +13268,11 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13051,7 +13307,11 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13086,7 +13346,11 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13121,7 +13385,11 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13156,7 +13424,11 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13191,7 +13463,11 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13226,7 +13502,11 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13261,7 +13541,11 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13296,7 +13580,11 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13331,7 +13619,11 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13366,7 +13658,11 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13401,7 +13697,11 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13436,7 +13736,11 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13471,7 +13775,11 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13506,7 +13814,11 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13541,7 +13853,11 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13576,7 +13892,11 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13611,7 +13931,11 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13646,7 +13970,11 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13681,7 +14009,11 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13716,7 +14048,11 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -13751,7 +14087,11 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -13786,7 +14126,11 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -13821,7 +14165,11 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-19 BackTest FCT.xlsx
+++ b/BackTest/2019-11-19 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1276,7 +1276,7 @@
         <v>31136.70849999999</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>122954.5695008022</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>70069.43852815265</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>70069.43852815265</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>83853.36222470437</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>83853.36222470437</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>83853.36222470437</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>83853.36222470437</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>83858.36222470437</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>83384.87212470437</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>83168.66872470437</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>85930.23332470437</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>84386.73582470437</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>84077.00132470437</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>108255.0379247044</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>61744.13692470438</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>61744.13692470438</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>57824.56782470438</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>57824.56782470438</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>48984.70252470438</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>32293.80812470438</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>32293.80812470438</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>32293.80812470438</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>32293.80812470438</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>32293.80812470438</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>13501.03442470438</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>12691.23792470438</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>12691.23792470438</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>13478.60492470438</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>10199.97132470438</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>10199.97132470438</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>10199.97132470438</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>10199.97132470438</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>10199.97132470438</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>10199.97132470438</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>10199.97132470438</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>14635.52558576632</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>13936.54448576632</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>13936.54448576632</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>16584.79118576632</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>17865.79998576632</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>17865.79998576632</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>16413.43458576632</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>16132.98748576633</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>6699.662685766325</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -9295,10 +9295,14 @@
         <v>-219054.1177142336</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>107</v>
+      </c>
+      <c r="J270" t="n">
+        <v>107</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
@@ -9331,8 +9335,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>107</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9364,8 +9374,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>107</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9397,8 +9413,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>107</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9430,8 +9452,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>107</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9463,8 +9491,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>107</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9496,8 +9530,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>107</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9529,8 +9569,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>107</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9562,8 +9608,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>107</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9595,8 +9647,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>107</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9628,8 +9686,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>107</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9661,8 +9725,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>107</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9694,8 +9764,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>107</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9727,8 +9803,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>107</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9760,8 +9842,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>107</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9793,8 +9881,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>107</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9826,8 +9920,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>107</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9859,8 +9959,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>107</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9892,8 +9998,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>107</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9925,8 +10037,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>107</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9958,8 +10076,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>107</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9991,8 +10115,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>107</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10024,8 +10154,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>107</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10057,8 +10193,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>107</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10090,8 +10232,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>107</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10123,8 +10271,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>107</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10156,8 +10310,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>107</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10189,8 +10349,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>107</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10222,8 +10388,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>107</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10255,8 +10427,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>107</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10288,8 +10466,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>107</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10321,8 +10505,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>107</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10354,8 +10544,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>107</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10384,11 +10580,19 @@
         <v>-189431.1698232426</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>112</v>
+      </c>
+      <c r="J303" t="n">
+        <v>107</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10420,8 +10624,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>107</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10450,11 +10660,19 @@
         <v>-194691.8991232426</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>110</v>
+      </c>
+      <c r="J305" t="n">
+        <v>107</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10483,11 +10701,19 @@
         <v>-194686.8991232426</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>109</v>
+      </c>
+      <c r="J306" t="n">
+        <v>107</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10516,11 +10742,19 @@
         <v>-194686.8991232426</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>110</v>
+      </c>
+      <c r="J307" t="n">
+        <v>107</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10549,11 +10783,19 @@
         <v>-208769.4677232426</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>110</v>
+      </c>
+      <c r="J308" t="n">
+        <v>107</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10582,11 +10824,19 @@
         <v>-211192.6104232426</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>109</v>
+      </c>
+      <c r="J309" t="n">
+        <v>107</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10615,11 +10865,19 @@
         <v>-211192.6104232426</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>108</v>
+      </c>
+      <c r="J310" t="n">
+        <v>107</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10648,15 +10906,17 @@
         <v>-211192.6104232426</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>108</v>
       </c>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>107</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L311" t="n">
@@ -10687,10 +10947,14 @@
         <v>-192346.8123232427</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>108</v>
+      </c>
+      <c r="J312" t="n">
+        <v>107</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10724,10 +10988,14 @@
         <v>-199942.1783232427</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>109</v>
+      </c>
+      <c r="J313" t="n">
+        <v>107</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10761,10 +11029,14 @@
         <v>-199942.1783232427</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>108</v>
+      </c>
+      <c r="J314" t="n">
+        <v>107</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10798,10 +11070,14 @@
         <v>-199942.1783232427</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>108</v>
+      </c>
+      <c r="J315" t="n">
+        <v>107</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10835,10 +11111,14 @@
         <v>-199620.0755232427</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>108</v>
+      </c>
+      <c r="J316" t="n">
+        <v>107</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10872,10 +11152,14 @@
         <v>-199605.2710232427</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>109</v>
+      </c>
+      <c r="J317" t="n">
+        <v>107</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10909,10 +11193,14 @@
         <v>-199615.2710232427</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>110</v>
+      </c>
+      <c r="J318" t="n">
+        <v>107</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10946,10 +11234,14 @@
         <v>-199615.2710232427</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>109</v>
+      </c>
+      <c r="J319" t="n">
+        <v>107</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10983,10 +11275,14 @@
         <v>-199610.2710232427</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>109</v>
+      </c>
+      <c r="J320" t="n">
+        <v>107</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11020,10 +11316,14 @@
         <v>-201502.3338232427</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>110</v>
+      </c>
+      <c r="J321" t="n">
+        <v>107</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11057,10 +11357,14 @@
         <v>-195675.3433232427</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>109</v>
+      </c>
+      <c r="J322" t="n">
+        <v>107</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11094,10 +11398,14 @@
         <v>-198980.3433232427</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>110</v>
+      </c>
+      <c r="J323" t="n">
+        <v>107</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11131,12 +11439,14 @@
         <v>-198980.3433232427</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>109</v>
       </c>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>107</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11170,12 +11480,14 @@
         <v>-198980.3433232427</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
         <v>109</v>
       </c>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>107</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11209,12 +11521,14 @@
         <v>-198980.3433232427</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>109</v>
       </c>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>107</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11248,10 +11562,14 @@
         <v>-198980.3433232427</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>109</v>
+      </c>
+      <c r="J327" t="n">
+        <v>107</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11288,7 +11606,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>107</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11325,7 +11645,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>107</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11362,7 +11684,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>107</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11399,7 +11723,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>107</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11436,7 +11762,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>107</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11473,7 +11801,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>107</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11510,7 +11840,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>107</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11547,7 +11879,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>107</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11584,7 +11918,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>107</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11621,7 +11957,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>107</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11658,7 +11996,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>107</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11695,7 +12035,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>107</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11732,7 +12074,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>107</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11766,16 +12110,20 @@
         <v>-138657.5977993489</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>107</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L341" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
       <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
@@ -11801,11 +12149,17 @@
         <v>-138657.5977993489</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>107</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11837,8 +12191,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>107</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11870,8 +12230,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>107</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11903,8 +12269,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>107</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11936,8 +12308,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>107</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11969,8 +12347,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>107</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12002,8 +12386,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>107</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12035,8 +12425,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>107</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12068,8 +12464,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>107</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12101,8 +12503,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>107</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12134,8 +12542,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>107</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12167,8 +12581,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>107</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12200,8 +12620,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>107</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12233,8 +12659,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>107</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12266,8 +12698,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>107</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12299,8 +12737,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>107</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12332,8 +12776,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>107</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12365,8 +12815,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>107</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12398,8 +12854,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>107</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12431,8 +12893,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>107</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12464,8 +12932,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>107</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12497,8 +12971,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>107</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12527,15 +13007,17 @@
         <v>-173001.3883993489</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
-      </c>
-      <c r="I364" t="n">
-        <v>109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>109</v>
-      </c>
-      <c r="K364" t="inlineStr"/>
+        <v>107</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12564,17 +13046,15 @@
         <v>-173026.2883993489</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
-      </c>
-      <c r="I365" t="n">
-        <v>110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L365" t="n">
@@ -12609,11 +13089,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L366" t="n">
@@ -12647,8 +13127,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>107</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12680,8 +13166,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>107</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12713,8 +13205,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>107</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12746,8 +13244,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>107</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12779,8 +13283,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>107</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12812,8 +13322,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>107</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12845,8 +13361,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>107</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12878,8 +13400,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>107</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12911,8 +13439,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>107</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12944,8 +13478,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>107</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12977,8 +13517,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>107</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13010,8 +13556,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>107</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13043,8 +13595,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>107</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13076,8 +13634,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>107</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13109,8 +13673,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>107</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13142,8 +13712,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>107</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13175,8 +13751,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>107</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13208,8 +13790,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>107</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13241,8 +13829,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>107</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13274,8 +13868,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>107</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13307,8 +13907,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>107</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13340,8 +13946,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>107</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13373,8 +13985,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>107</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13406,8 +14024,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>107</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13439,8 +14063,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>107</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13472,8 +14102,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>107</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13505,8 +14141,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>107</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13538,8 +14180,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>107</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13571,8 +14219,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>107</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13604,8 +14258,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>107</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13637,8 +14297,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>107</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13667,11 +14333,19 @@
         <v>-259627.603999349</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>107</v>
+      </c>
+      <c r="J398" t="n">
+        <v>107</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13700,11 +14374,19 @@
         <v>-259627.603999349</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>107</v>
+      </c>
+      <c r="J399" t="n">
+        <v>107</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13733,11 +14415,19 @@
         <v>-259318.767799349</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>107</v>
+      </c>
+      <c r="J400" t="n">
+        <v>107</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13769,8 +14459,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>107</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13802,8 +14498,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>107</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13835,8 +14537,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>107</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13868,8 +14576,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>107</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13901,8 +14615,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>107</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13934,8 +14654,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>107</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13964,11 +14690,19 @@
         <v>-281889.057199349</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>107</v>
+      </c>
+      <c r="J407" t="n">
+        <v>107</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14000,8 +14734,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>107</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14033,8 +14773,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>107</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14066,8 +14812,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>107</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14099,8 +14851,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>107</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14132,8 +14890,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>107</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14165,8 +14929,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>107</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14198,8 +14968,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>107</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14231,8 +15007,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>107</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14264,8 +15046,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>107</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14297,8 +15085,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>107</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14330,8 +15124,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>107</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14363,8 +15163,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>107</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14396,8 +15202,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>107</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14429,8 +15241,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>107</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14462,8 +15280,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>107</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14495,8 +15319,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>107</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14528,8 +15358,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>107</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14561,8 +15397,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>107</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14594,8 +15436,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>107</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14627,8 +15475,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>107</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14660,8 +15514,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>107</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14693,8 +15553,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>107</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14726,8 +15592,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>107</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14759,8 +15631,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>107</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14792,8 +15670,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>107</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14825,8 +15709,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>107</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14858,8 +15748,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>107</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14891,8 +15787,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>107</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14924,8 +15826,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>107</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14954,11 +15862,19 @@
         <v>-307028.5915993491</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>109</v>
+      </c>
+      <c r="J437" t="n">
+        <v>107</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14987,11 +15903,19 @@
         <v>-351370.0851993491</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>110</v>
+      </c>
+      <c r="J438" t="n">
+        <v>107</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15023,8 +15947,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>107</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15056,8 +15986,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>107</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15086,11 +16022,19 @@
         <v>-345507.1562993491</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>109</v>
+      </c>
+      <c r="J441" t="n">
+        <v>107</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15119,17 +16063,25 @@
         <v>-345507.1562993491</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>109</v>
+      </c>
+      <c r="J442" t="n">
+        <v>107</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
       <c r="M442" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-19 BackTest FCT.xlsx
+++ b/BackTest/2019-11-19 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -5269,7 +5269,7 @@
         <v>83858.36222470437</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>83384.87212470437</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>83168.66872470437</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>85930.23332470437</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>57824.56782470438</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>48984.70252470438</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>32293.80812470438</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>32293.80812470438</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>32293.80812470438</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>32293.80812470438</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>32293.80812470438</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>13501.03442470438</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>12691.23792470438</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>12691.23792470438</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>13478.60492470438</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>10199.97132470438</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>10199.97132470438</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>10199.97132470438</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>10199.97132470438</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>10199.97132470438</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>10199.97132470438</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>10199.97132470438</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>14635.52558576632</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>13936.54448576632</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>13936.54448576632</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>16584.79118576632</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>17865.79998576632</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>17865.79998576632</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>16413.43458576632</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>6699.662685766325</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -9295,14 +9295,10 @@
         <v>-219054.1177142336</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>107</v>
-      </c>
-      <c r="J270" t="n">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
@@ -9335,14 +9331,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>107</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9374,14 +9364,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>107</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9413,14 +9397,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>107</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9452,14 +9430,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>107</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9491,14 +9463,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>107</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9530,14 +9496,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>107</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9569,14 +9529,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>107</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9608,14 +9562,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>107</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9647,14 +9595,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>107</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9686,14 +9628,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>107</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9725,14 +9661,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>107</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9764,14 +9694,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>107</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9803,14 +9727,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>107</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9842,14 +9760,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>107</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9881,14 +9793,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>107</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9920,14 +9826,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>107</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9959,14 +9859,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>107</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9998,14 +9892,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>107</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10037,14 +9925,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>107</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10076,14 +9958,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>107</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10115,14 +9991,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>107</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10154,14 +10024,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>107</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10193,14 +10057,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>107</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10232,14 +10090,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>107</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10271,14 +10123,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>107</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10310,14 +10156,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>107</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10349,14 +10189,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>107</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10388,14 +10222,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>107</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10427,14 +10255,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>107</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10466,14 +10288,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>107</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10505,14 +10321,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>107</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10544,14 +10354,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>107</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10580,19 +10384,11 @@
         <v>-189431.1698232426</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>112</v>
-      </c>
-      <c r="J303" t="n">
-        <v>107</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10624,14 +10420,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>107</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10660,19 +10450,11 @@
         <v>-194691.8991232426</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>110</v>
-      </c>
-      <c r="J305" t="n">
-        <v>107</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10701,19 +10483,11 @@
         <v>-194686.8991232426</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>109</v>
-      </c>
-      <c r="J306" t="n">
-        <v>107</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10742,19 +10516,11 @@
         <v>-194686.8991232426</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>110</v>
-      </c>
-      <c r="J307" t="n">
-        <v>107</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10783,19 +10549,11 @@
         <v>-208769.4677232426</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>110</v>
-      </c>
-      <c r="J308" t="n">
-        <v>107</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10824,19 +10582,11 @@
         <v>-211192.6104232426</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>109</v>
-      </c>
-      <c r="J309" t="n">
-        <v>107</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10865,19 +10615,11 @@
         <v>-211192.6104232426</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>108</v>
-      </c>
-      <c r="J310" t="n">
-        <v>107</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10906,19 +10648,11 @@
         <v>-211192.6104232426</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>108</v>
-      </c>
-      <c r="J311" t="n">
-        <v>107</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10947,19 +10681,11 @@
         <v>-192346.8123232427</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>108</v>
-      </c>
-      <c r="J312" t="n">
-        <v>107</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10988,19 +10714,11 @@
         <v>-199942.1783232427</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>109</v>
-      </c>
-      <c r="J313" t="n">
-        <v>107</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11029,19 +10747,11 @@
         <v>-199942.1783232427</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>108</v>
-      </c>
-      <c r="J314" t="n">
-        <v>107</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11070,19 +10780,11 @@
         <v>-199942.1783232427</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>108</v>
-      </c>
-      <c r="J315" t="n">
-        <v>107</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11111,19 +10813,11 @@
         <v>-199620.0755232427</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>108</v>
-      </c>
-      <c r="J316" t="n">
-        <v>107</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11152,19 +10846,11 @@
         <v>-199605.2710232427</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>109</v>
-      </c>
-      <c r="J317" t="n">
-        <v>107</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11193,19 +10879,11 @@
         <v>-199615.2710232427</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>110</v>
-      </c>
-      <c r="J318" t="n">
-        <v>107</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11234,19 +10912,11 @@
         <v>-199615.2710232427</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>109</v>
-      </c>
-      <c r="J319" t="n">
-        <v>107</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11275,19 +10945,11 @@
         <v>-199610.2710232427</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>109</v>
-      </c>
-      <c r="J320" t="n">
-        <v>107</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11316,19 +10978,11 @@
         <v>-201502.3338232427</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>110</v>
-      </c>
-      <c r="J321" t="n">
-        <v>107</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11357,19 +11011,11 @@
         <v>-195675.3433232427</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>109</v>
-      </c>
-      <c r="J322" t="n">
-        <v>107</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11398,19 +11044,11 @@
         <v>-198980.3433232427</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>110</v>
-      </c>
-      <c r="J323" t="n">
-        <v>107</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11439,19 +11077,11 @@
         <v>-198980.3433232427</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>109</v>
-      </c>
-      <c r="J324" t="n">
-        <v>107</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11480,19 +11110,11 @@
         <v>-198980.3433232427</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>109</v>
-      </c>
-      <c r="J325" t="n">
-        <v>107</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11521,19 +11143,11 @@
         <v>-198980.3433232427</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>109</v>
-      </c>
-      <c r="J326" t="n">
-        <v>107</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11562,19 +11176,11 @@
         <v>-198980.3433232427</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>109</v>
-      </c>
-      <c r="J327" t="n">
-        <v>107</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11606,14 +11212,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>107</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11645,14 +11245,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>107</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11684,14 +11278,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>107</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11723,14 +11311,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>107</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11762,14 +11344,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>107</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11801,14 +11377,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>107</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11840,14 +11410,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>107</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11879,14 +11443,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>107</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11918,14 +11476,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>107</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11957,14 +11509,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>107</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11996,14 +11542,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>107</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12035,14 +11575,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>107</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12074,14 +11608,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>107</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12113,14 +11641,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>107</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12152,14 +11674,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>107</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12191,14 +11707,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>107</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12230,14 +11740,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>107</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12269,14 +11773,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>107</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12308,14 +11806,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>107</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12347,14 +11839,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>107</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12386,14 +11872,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>107</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12425,14 +11905,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>107</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12464,14 +11938,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>107</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12503,14 +11971,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>107</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12542,14 +12004,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>107</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12581,14 +12037,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>107</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12620,14 +12070,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>107</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12659,14 +12103,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>107</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12698,14 +12136,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>107</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12737,14 +12169,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>107</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12776,14 +12202,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>107</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12815,14 +12235,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>107</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12854,14 +12268,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>107</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12893,14 +12301,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>107</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12932,14 +12334,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>107</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12971,14 +12367,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>107</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13010,14 +12400,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>107</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13049,14 +12433,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>107</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13088,14 +12466,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>107</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13127,14 +12499,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>107</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13166,14 +12532,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>107</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13205,14 +12565,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>107</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13244,14 +12598,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>107</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13283,14 +12631,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>107</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13322,14 +12664,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>107</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13361,14 +12697,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>107</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13400,14 +12730,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>107</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13439,14 +12763,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>107</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13478,14 +12796,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>107</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13517,14 +12829,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>107</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13556,14 +12862,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>107</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13595,14 +12895,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>107</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13634,14 +12928,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>107</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13673,14 +12961,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>107</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13712,14 +12994,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>107</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13751,14 +13027,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>107</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13790,14 +13060,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>107</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13829,14 +13093,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>107</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13868,14 +13126,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>107</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13907,14 +13159,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>107</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13943,17 +13189,15 @@
         <v>-275514.594699349</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>108</v>
+      </c>
       <c r="J388" t="n">
-        <v>107</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13986,11 +13230,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L389" t="n">
@@ -14025,11 +13269,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L390" t="n">
@@ -14063,14 +13307,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>107</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14102,14 +13340,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>107</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14141,14 +13373,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>107</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14180,14 +13406,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>107</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14219,14 +13439,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>107</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14258,14 +13472,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>107</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14297,14 +13505,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>107</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14333,19 +13535,11 @@
         <v>-259627.603999349</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>107</v>
-      </c>
-      <c r="J398" t="n">
-        <v>107</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14374,19 +13568,11 @@
         <v>-259627.603999349</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>107</v>
-      </c>
-      <c r="J399" t="n">
-        <v>107</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14423,11 +13609,7 @@
       <c r="J400" t="n">
         <v>107</v>
       </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14464,7 +13646,7 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L401" t="n">
@@ -14690,11 +13872,9 @@
         <v>-281889.057199349</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
         <v>107</v>
       </c>
@@ -15862,11 +15042,9 @@
         <v>-307028.5915993491</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
         <v>107</v>
       </c>
@@ -15903,11 +15081,9 @@
         <v>-351370.0851993491</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
         <v>107</v>
       </c>
@@ -15983,9 +15159,11 @@
         <v>-345507.1562993491</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>110</v>
+      </c>
       <c r="J440" t="n">
         <v>107</v>
       </c>
@@ -16082,6 +15260,6 @@
       <c r="M442" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-19 BackTest FCT.xlsx
+++ b/BackTest/2019-11-19 BackTest FCT.xlsx
@@ -5269,7 +5269,7 @@
         <v>83858.36222470437</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>83384.87212470437</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>83168.66872470437</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>85930.23332470437</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -9691,10 +9691,14 @@
         <v>-216004.4001142336</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>108</v>
+      </c>
+      <c r="J282" t="n">
+        <v>108</v>
+      </c>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
@@ -9724,11 +9728,19 @@
         <v>-216004.4001142336</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>108</v>
+      </c>
+      <c r="J283" t="n">
+        <v>108</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9757,11 +9769,19 @@
         <v>-216004.4001142336</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>108</v>
+      </c>
+      <c r="J284" t="n">
+        <v>108</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9823,11 +9843,17 @@
         <v>-199866.2390142336</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>108</v>
+      </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9856,11 +9882,17 @@
         <v>-199866.2390142336</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>109</v>
+      </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9889,11 +9921,17 @@
         <v>-199866.2390142336</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>109</v>
+      </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9922,11 +9960,17 @@
         <v>-199866.2390142336</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>109</v>
+      </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9955,11 +9999,17 @@
         <v>-199866.2390142336</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>109</v>
+      </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9988,11 +10038,17 @@
         <v>-199866.2390142336</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>109</v>
+      </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10021,11 +10077,17 @@
         <v>-199866.2390142336</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>109</v>
+      </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10054,11 +10116,17 @@
         <v>-199866.2390142336</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>109</v>
+      </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10087,11 +10155,17 @@
         <v>-175954.8571142336</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>109</v>
+      </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10120,11 +10194,17 @@
         <v>-175954.8571142336</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>111</v>
+      </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10157,7 +10237,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10186,11 +10270,17 @@
         <v>-151374.3145232426</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>113</v>
+      </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10219,11 +10309,17 @@
         <v>-151374.3145232426</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>113</v>
+      </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10256,7 +10352,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10289,7 +10389,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10322,7 +10426,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10351,11 +10459,17 @@
         <v>-171183.6477232426</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>112</v>
+      </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10384,11 +10498,17 @@
         <v>-189431.1698232426</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>112</v>
+      </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10417,11 +10537,17 @@
         <v>-189431.1698232426</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>110</v>
+      </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10450,11 +10576,17 @@
         <v>-194691.8991232426</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>110</v>
+      </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10483,11 +10615,17 @@
         <v>-194686.8991232426</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>109</v>
+      </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10516,11 +10654,17 @@
         <v>-194686.8991232426</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>110</v>
+      </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10549,11 +10693,17 @@
         <v>-208769.4677232426</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>110</v>
+      </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10582,11 +10732,17 @@
         <v>-211192.6104232426</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>109</v>
+      </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10615,11 +10771,17 @@
         <v>-211192.6104232426</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>108</v>
+      </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10648,11 +10810,17 @@
         <v>-211192.6104232426</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>108</v>
+      </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10681,11 +10849,17 @@
         <v>-192346.8123232427</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>108</v>
+      </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10714,11 +10888,17 @@
         <v>-199942.1783232427</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>109</v>
+      </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10747,11 +10927,17 @@
         <v>-199942.1783232427</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>108</v>
+      </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10780,11 +10966,17 @@
         <v>-199942.1783232427</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>108</v>
+      </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10813,11 +11005,17 @@
         <v>-199620.0755232427</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>108</v>
+      </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10846,11 +11044,17 @@
         <v>-199605.2710232427</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>109</v>
+      </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10883,7 +11087,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10916,7 +11124,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10949,7 +11161,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10982,7 +11198,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11015,7 +11235,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11048,7 +11272,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11081,7 +11309,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11114,7 +11346,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11147,7 +11383,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11180,7 +11420,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11213,7 +11457,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11246,7 +11494,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11279,7 +11531,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11312,7 +11568,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11345,7 +11605,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11378,7 +11642,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11411,7 +11679,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11444,7 +11716,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11477,7 +11753,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11510,7 +11790,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11543,7 +11827,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11576,7 +11864,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11609,7 +11901,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11642,7 +11938,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11675,7 +11975,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11708,7 +12012,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11741,7 +12049,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11774,7 +12086,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11807,7 +12123,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11840,7 +12160,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11873,7 +12197,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11906,7 +12234,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11939,7 +12271,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11972,7 +12308,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12005,7 +12345,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12038,7 +12382,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12071,7 +12419,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12104,7 +12456,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12137,7 +12493,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12170,7 +12530,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12203,7 +12567,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12236,7 +12604,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12269,7 +12641,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12302,7 +12678,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12335,7 +12715,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12368,7 +12752,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12401,7 +12789,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12434,7 +12826,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12467,7 +12863,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12500,7 +12900,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12533,7 +12937,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12566,7 +12974,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12599,7 +13011,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12632,7 +13048,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12665,7 +13085,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12698,7 +13122,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12731,7 +13159,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12764,7 +13196,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12797,7 +13233,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12830,7 +13270,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12863,7 +13307,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12896,7 +13344,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12929,7 +13381,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12962,7 +13418,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12995,7 +13455,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13028,7 +13492,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13061,7 +13529,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13094,7 +13566,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13127,7 +13603,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13160,7 +13640,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13189,15 +13673,15 @@
         <v>-275514.594699349</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>108</v>
-      </c>
-      <c r="J388" t="n">
-        <v>108</v>
-      </c>
-      <c r="K388" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13229,12 +13713,10 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>108</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L389" t="n">
@@ -13268,12 +13750,10 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>108</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L390" t="n">
@@ -13308,7 +13788,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13341,7 +13825,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13374,7 +13862,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13407,7 +13899,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13440,7 +13936,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13473,7 +13973,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13506,7 +14010,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13535,11 +14043,17 @@
         <v>-259627.603999349</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>107</v>
+      </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13568,11 +14082,17 @@
         <v>-259627.603999349</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>107</v>
+      </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13606,10 +14126,12 @@
       <c r="I400" t="n">
         <v>107</v>
       </c>
-      <c r="J400" t="n">
-        <v>107</v>
-      </c>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13641,12 +14163,10 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>107</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L401" t="n">
@@ -13677,12 +14197,12 @@
         <v>-259264.849099349</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
         <v>107</v>
       </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13719,9 +14239,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>107</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13758,9 +14276,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>107</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13797,9 +14313,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>107</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13833,12 +14347,12 @@
         <v>-281916.057199349</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
         <v>107</v>
       </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13872,12 +14386,12 @@
         <v>-281889.057199349</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
         <v>107</v>
       </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13914,9 +14428,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>107</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13953,9 +14465,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>107</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13992,9 +14502,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>107</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14028,12 +14536,12 @@
         <v>-282258.298399349</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>107</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>108</v>
+      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14070,9 +14578,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>107</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14109,9 +14615,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>107</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14148,9 +14652,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>107</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14187,9 +14689,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>107</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14226,9 +14726,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>107</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14265,9 +14763,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>107</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14304,9 +14800,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>107</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14343,9 +14837,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>107</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14382,9 +14874,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>107</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14421,9 +14911,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>107</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14460,9 +14948,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>107</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14499,9 +14985,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>107</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14538,9 +15022,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>107</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14574,12 +15056,12 @@
         <v>-271231.6919993491</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>107</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>111</v>
+      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14613,12 +15095,12 @@
         <v>-271231.6919993491</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>107</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>111</v>
+      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14652,12 +15134,12 @@
         <v>-281106.2840993491</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>107</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>111</v>
+      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14691,12 +15173,12 @@
         <v>-281101.2840993491</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>107</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>110</v>
+      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14730,12 +15212,12 @@
         <v>-285945.1771993491</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>107</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>111</v>
+      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14769,12 +15251,12 @@
         <v>-285945.1771993491</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>107</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>110</v>
+      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14808,12 +15290,12 @@
         <v>-285940.1771993491</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>107</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>110</v>
+      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14847,12 +15329,12 @@
         <v>-297151.6112993491</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>107</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>111</v>
+      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14886,12 +15368,12 @@
         <v>-297151.6112993491</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>107</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>110</v>
+      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14925,12 +15407,12 @@
         <v>-297151.6112993491</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>107</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>110</v>
+      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14964,12 +15446,12 @@
         <v>-297151.6112993491</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>107</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>110</v>
+      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15003,12 +15485,12 @@
         <v>-307033.5915993491</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>107</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>110</v>
+      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15042,12 +15524,12 @@
         <v>-307028.5915993491</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>107</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>109</v>
+      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15081,12 +15563,12 @@
         <v>-351370.0851993491</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>107</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>110</v>
+      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15120,12 +15602,12 @@
         <v>-344163.0601993491</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>107</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>109</v>
+      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15164,9 +15646,7 @@
       <c r="I440" t="n">
         <v>110</v>
       </c>
-      <c r="J440" t="n">
-        <v>107</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15205,9 +15685,7 @@
       <c r="I441" t="n">
         <v>109</v>
       </c>
-      <c r="J441" t="n">
-        <v>107</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15246,9 +15724,7 @@
       <c r="I442" t="n">
         <v>109</v>
       </c>
-      <c r="J442" t="n">
-        <v>107</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
